--- a/profile.xlsx
+++ b/profile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="19095" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,249 +14,243 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
-  <si>
-    <t>787/6365485</t>
-  </si>
-  <si>
-    <t>2765/76490541</t>
-  </si>
-  <si>
-    <t>2073/43006358</t>
-  </si>
-  <si>
-    <t>3204/102712451</t>
-  </si>
-  <si>
-    <t>4083/166794465</t>
-  </si>
-  <si>
-    <t>7977/636633861</t>
-  </si>
-  <si>
-    <t>6946/482622228</t>
-  </si>
-  <si>
-    <t>8987/807944923</t>
-  </si>
-  <si>
-    <t>9440/891307952</t>
-  </si>
-  <si>
-    <t>15204/2311819123</t>
-  </si>
-  <si>
-    <t>7661/587149304</t>
-  </si>
-  <si>
-    <t>10107/1021736363</t>
-  </si>
-  <si>
-    <t>10741/1154047048</t>
-  </si>
-  <si>
-    <t>9891/978659735</t>
-  </si>
-  <si>
-    <t>8953/801774896</t>
-  </si>
-  <si>
-    <t>22286/4967458214</t>
-  </si>
-  <si>
-    <t>307/946042</t>
-  </si>
-  <si>
-    <t>547/3000191</t>
-  </si>
-  <si>
-    <t>1075/11568412</t>
-  </si>
-  <si>
-    <t>1554/24175384</t>
-  </si>
-  <si>
-    <t>1757/30933552</t>
-  </si>
-  <si>
-    <t>1876/35284874</t>
-  </si>
-  <si>
-    <t>3985/158920893</t>
-  </si>
-  <si>
-    <t>3418/116929033</t>
-  </si>
-  <si>
-    <t>3062/93857256</t>
-  </si>
-  <si>
-    <t>3092/95636536</t>
-  </si>
-  <si>
-    <t>3509/123161545</t>
-  </si>
-  <si>
-    <t>2736/74892261</t>
-  </si>
-  <si>
-    <t>4573/209185167</t>
-  </si>
-  <si>
-    <t>6543/428264343</t>
-  </si>
-  <si>
-    <t>4374/191362914</t>
-  </si>
-  <si>
-    <t>4479/200700011</t>
-  </si>
-  <si>
-    <t>207/429435</t>
-  </si>
-  <si>
-    <t>271/737914</t>
-  </si>
-  <si>
-    <t>728/5311883</t>
-  </si>
-  <si>
-    <t>723/5238364</t>
-  </si>
-  <si>
-    <t>1082/11718956</t>
-  </si>
-  <si>
-    <t>798/6386574</t>
-  </si>
-  <si>
-    <t>1079/11683365</t>
-  </si>
-  <si>
-    <t>1767/31251573</t>
-  </si>
-  <si>
-    <t>2101/44196749</t>
-  </si>
-  <si>
-    <t>2075/43124331</t>
-  </si>
-  <si>
-    <t>1336/17885651</t>
-  </si>
-  <si>
-    <t>1352/18290839</t>
-  </si>
-  <si>
-    <t>3458/119594218</t>
-  </si>
-  <si>
-    <t>1445/20903893</t>
-  </si>
-  <si>
-    <t>2141/45857483</t>
-  </si>
-  <si>
-    <t>1705/29092527</t>
-  </si>
-  <si>
-    <t>102/105316</t>
-  </si>
-  <si>
-    <t>113/129978</t>
-  </si>
-  <si>
-    <t>127/162909</t>
-  </si>
-  <si>
-    <t>143/207036</t>
-  </si>
-  <si>
-    <t>135/185318</t>
-  </si>
-  <si>
-    <t>187/351008</t>
-  </si>
-  <si>
-    <t>182/333580</t>
-  </si>
-  <si>
-    <t>216/469487</t>
-  </si>
-  <si>
-    <t>163/266494</t>
-  </si>
-  <si>
-    <t>266/713813</t>
-  </si>
-  <si>
-    <t>164/269375</t>
-  </si>
-  <si>
-    <t>308/952950</t>
-  </si>
-  <si>
-    <t>177/314068</t>
-  </si>
-  <si>
-    <t>232/565531</t>
-  </si>
-  <si>
-    <t>198/393689</t>
-  </si>
-  <si>
-    <t>245/603846</t>
-  </si>
-  <si>
-    <t>101/116604</t>
-  </si>
-  <si>
-    <t>88/77450</t>
-  </si>
-  <si>
-    <t>92/85192</t>
-  </si>
-  <si>
-    <t>103/108257</t>
-  </si>
-  <si>
-    <t>99/102805</t>
-  </si>
-  <si>
-    <t>96/93103</t>
-  </si>
-  <si>
-    <t>97/95641</t>
-  </si>
-  <si>
-    <t>92/86329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97/95971 </t>
-  </si>
-  <si>
-    <t>96/92905</t>
-  </si>
-  <si>
-    <t>97/95201</t>
-  </si>
-  <si>
-    <t>99/100040</t>
-  </si>
-  <si>
-    <t>101/102290</t>
-  </si>
-  <si>
-    <t>100/101223</t>
-  </si>
-  <si>
-    <t>104/108912</t>
-  </si>
-  <si>
-    <t>99/99059</t>
-  </si>
-  <si>
-    <t>、</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
+  <si>
+    <t>795/13106</t>
+  </si>
+  <si>
+    <t>2780/5639</t>
+  </si>
+  <si>
+    <t>2205/6061</t>
+  </si>
+  <si>
+    <t>3308/6640</t>
+  </si>
+  <si>
+    <t>4051/3640</t>
+  </si>
+  <si>
+    <t>7935/14562</t>
+  </si>
+  <si>
+    <t>6842/17628</t>
+  </si>
+  <si>
+    <t>8974/35209</t>
+  </si>
+  <si>
+    <t>9534/51843</t>
+  </si>
+  <si>
+    <t>15207/26283</t>
+  </si>
+  <si>
+    <t>7688/22710</t>
+  </si>
+  <si>
+    <t>10186/15355</t>
+  </si>
+  <si>
+    <t>10824/32990</t>
+  </si>
+  <si>
+    <t>9930/40142</t>
+  </si>
+  <si>
+    <t>8784/10576</t>
+  </si>
+  <si>
+    <t>21676/11967</t>
+  </si>
+  <si>
+    <t>307/642</t>
+  </si>
+  <si>
+    <t>558/1219</t>
+  </si>
+  <si>
+    <t>1110/2588</t>
+  </si>
+  <si>
+    <t>1571/5291</t>
+  </si>
+  <si>
+    <t>1736/5244</t>
+  </si>
+  <si>
+    <t>1839/2382</t>
+  </si>
+  <si>
+    <t>3944/16361</t>
+  </si>
+  <si>
+    <t>3324/3918</t>
+  </si>
+  <si>
+    <t>2978/3974</t>
+  </si>
+  <si>
+    <t>3139/7457</t>
+  </si>
+  <si>
+    <t>3521/5745</t>
+  </si>
+  <si>
+    <t>2812/8084</t>
+  </si>
+  <si>
+    <t>4663/16956</t>
+  </si>
+  <si>
+    <t>6392/15602</t>
+  </si>
+  <si>
+    <t>4232/2965</t>
+  </si>
+  <si>
+    <t>4423/9082</t>
+  </si>
+  <si>
+    <t>217/489</t>
+  </si>
+  <si>
+    <t>277/303</t>
+  </si>
+  <si>
+    <t>732/690</t>
+  </si>
+  <si>
+    <t>713/595</t>
+  </si>
+  <si>
+    <t>1097/3394</t>
+  </si>
+  <si>
+    <t>792/1779</t>
+  </si>
+  <si>
+    <t>1034/2096</t>
+  </si>
+  <si>
+    <t>1753/1326</t>
+  </si>
+  <si>
+    <t>2075/3095</t>
+  </si>
+  <si>
+    <t>2097/5324</t>
+  </si>
+  <si>
+    <t>1265/1678</t>
+  </si>
+  <si>
+    <t>1368/7404</t>
+  </si>
+  <si>
+    <t>3533/8537</t>
+  </si>
+  <si>
+    <t>1384/1575</t>
+  </si>
+  <si>
+    <t>2064/877</t>
+  </si>
+  <si>
+    <t>1653/3409</t>
+  </si>
+  <si>
+    <t>104/166</t>
+  </si>
+  <si>
+    <t>121/722</t>
+  </si>
+  <si>
+    <t>124/150</t>
+  </si>
+  <si>
+    <t>146/360</t>
+  </si>
+  <si>
+    <t>147/336</t>
+  </si>
+  <si>
+    <t>185/336</t>
+  </si>
+  <si>
+    <t>189/358</t>
+  </si>
+  <si>
+    <t>210/481</t>
+  </si>
+  <si>
+    <t>162/199</t>
+  </si>
+  <si>
+    <t>263/274</t>
+  </si>
+  <si>
+    <t>165/153</t>
+  </si>
+  <si>
+    <t>306/800</t>
+  </si>
+  <si>
+    <t>180/261</t>
+  </si>
+  <si>
+    <t>196/276</t>
+  </si>
+  <si>
+    <t>200/512</t>
+  </si>
+  <si>
+    <t>239/200</t>
+  </si>
+  <si>
+    <t>99/1164</t>
+  </si>
+  <si>
+    <t>91/183</t>
+  </si>
+  <si>
+    <t>94/210</t>
+  </si>
+  <si>
+    <t>112/129</t>
+  </si>
+  <si>
+    <t>100/123</t>
+  </si>
+  <si>
+    <t>105/614</t>
+  </si>
+  <si>
+    <t>97/176</t>
+  </si>
+  <si>
+    <t>94/138</t>
+  </si>
+  <si>
+    <t>98/122</t>
+  </si>
+  <si>
+    <t>113/2138</t>
+  </si>
+  <si>
+    <t>105/780</t>
+  </si>
+  <si>
+    <t>99/175</t>
+  </si>
+  <si>
+    <t>98/146</t>
+  </si>
+  <si>
+    <t>101/104</t>
+  </si>
+  <si>
+    <t>100/59</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -875,8 +869,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1197,7 +1194,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1501,33 +1498,28 @@
       <c r="K6" t="s">
         <v>73</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="1">
+        <v>34790</v>
+      </c>
+      <c r="M6" t="s">
         <v>74</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>75</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>76</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>77</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>78</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="10:10">
-      <c r="J7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="8" spans="10:10">
       <c r="J8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
